--- a/results/datasetNearOne_polytree5.xlsx
+++ b/results/datasetNearOne_polytree5.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5329999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4670000000000002</v>
+        <v>0.4960000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04930925369262695</v>
+        <v>0.05128955841064453</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.507</v>
+        <v>0.5159999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.493</v>
+        <v>0.4840000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04682517051696777</v>
+        <v>0.04795718193054199</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.507</v>
+        <v>0.503</v>
       </c>
       <c r="E4" t="n">
-        <v>0.493</v>
+        <v>0.497</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1249697208404541</v>
+        <v>0.06248021125793457</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.492</v>
+        <v>0.507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5079999999999999</v>
+        <v>0.493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0624852180480957</v>
+        <v>0.05340194702148438</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5239999999999998</v>
+        <v>0.506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4760000000000001</v>
+        <v>0.4940000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0469052791595459</v>
+        <v>0.05343794822692871</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5119999999999999</v>
+        <v>0.5099999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4880000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06249070167541504</v>
+        <v>0.04691553115844727</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.504</v>
+        <v>0.5079999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4960000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04684758186340332</v>
+        <v>0.05339670181274414</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.489</v>
+        <v>0.4960000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5109999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04687595367431641</v>
+        <v>0.06267046928405762</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4790000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5209999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06248617172241211</v>
+        <v>0.0500185489654541</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.507</v>
+        <v>0.4940000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.493</v>
+        <v>0.506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04687833786010742</v>
+        <v>0.0592496395111084</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5269999999999998</v>
+        <v>0.5139999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4730000000000001</v>
+        <v>0.4860000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06247520446777344</v>
+        <v>0.05338072776794434</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5269999999999998</v>
+        <v>0.503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4730000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04685807228088379</v>
+        <v>0.0489504337310791</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5089999999999999</v>
+        <v>0.4780000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.491</v>
+        <v>0.5219999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06249046325683594</v>
+        <v>0.0627434253692627</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5149999999999999</v>
+        <v>0.507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4850000000000001</v>
+        <v>0.493</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04686236381530762</v>
+        <v>0.05894374847412109</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5089999999999999</v>
+        <v>0.5119999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.491</v>
+        <v>0.4880000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06248092651367188</v>
+        <v>0.05320334434509277</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5169999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4830000000000001</v>
+        <v>0.4940000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04685425758361816</v>
+        <v>0.05924010276794434</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4950000000000001</v>
+        <v>0.507</v>
       </c>
       <c r="E18" t="n">
-        <v>0.505</v>
+        <v>0.493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06250667572021484</v>
+        <v>0.05408072471618652</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.489</v>
+        <v>0.5309999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5109999999999999</v>
+        <v>0.4690000000000002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04686069488525391</v>
+        <v>0.05130887031555176</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.502</v>
+        <v>0.5179999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.498</v>
+        <v>0.4820000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04686212539672852</v>
+        <v>0.06137394905090332</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5169999999999999</v>
+        <v>0.5099999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4830000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06247973442077637</v>
+        <v>0.05122685432434082</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06244564056396484</v>
+        <v>0.06912660598754883</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5149999999999999</v>
+        <v>0.5139999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4850000000000001</v>
+        <v>0.4860000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07814812660217285</v>
+        <v>0.06251955032348633</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4750000000000001</v>
+        <v>0.5129999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5249999999999998</v>
+        <v>0.4870000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06732916831970215</v>
+        <v>0.07334685325622559</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.49</v>
+        <v>0.5139999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5099999999999999</v>
+        <v>0.4860000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0561826229095459</v>
+        <v>0.04892230033874512</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5339999999999998</v>
+        <v>0.5429999999999997</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4660000000000002</v>
+        <v>0.4570000000000002</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04534268379211426</v>
+        <v>0.06548357009887695</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2838281636434157</v>
+        <v>0.2849857406696255</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7161718363565843</v>
+        <v>0.7150142593303744</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07154035568237305</v>
+        <v>0.05380034446716309</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2784810377882697</v>
+        <v>0.2727185534590963</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7215189622117302</v>
+        <v>0.7272814465409037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04418420791625977</v>
+        <v>0.06016945838928223</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2963583473703001</v>
+        <v>0.2778660931331676</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7036416526296999</v>
+        <v>0.7221339068668324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06871604919433594</v>
+        <v>0.05189037322998047</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2875946469368771</v>
+        <v>0.2811894176442978</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7124053530631229</v>
+        <v>0.7188105823557023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04895901679992676</v>
+        <v>0.0624845027923584</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2830678475818804</v>
+        <v>0.2725972509571902</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7169321524181196</v>
+        <v>0.7274027490428099</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04690980911254883</v>
+        <v>0.05347323417663574</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.273288377518966</v>
+        <v>0.2840644663245018</v>
       </c>
       <c r="E32" t="n">
-        <v>0.726711622481034</v>
+        <v>0.7159355336754982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06247997283935547</v>
+        <v>0.04686236381530762</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2567568988824716</v>
+        <v>0.2960653354310128</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7432431011175283</v>
+        <v>0.7039346645689872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05727481842041016</v>
+        <v>0.07022404670715332</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2684313191939549</v>
+        <v>0.2599966746354928</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7315686808060452</v>
+        <v>0.7400033253645072</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0469057559967041</v>
+        <v>0.05681657791137695</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2830270705816221</v>
+        <v>0.2830852523859511</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7169729294183779</v>
+        <v>0.7169147476140489</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06248736381530762</v>
+        <v>0.05124235153198242</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2978894177928899</v>
+        <v>0.2720023440624406</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7021105822071101</v>
+        <v>0.7279976559375594</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04686260223388672</v>
+        <v>0.06182861328125</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3036368968049082</v>
+        <v>0.2529994138320701</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6963631031950918</v>
+        <v>0.7470005861679299</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06248736381530762</v>
+        <v>0.05193471908569336</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2830852523859511</v>
+        <v>0.2847166010213929</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7169147476140488</v>
+        <v>0.7152833989786072</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04684972763061523</v>
+        <v>0.05921411514282227</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2923322632341195</v>
+        <v>0.2840531717233772</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7076677367658805</v>
+        <v>0.7159468282766228</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04687404632568359</v>
+        <v>0.05349206924438477</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2592540684284181</v>
+        <v>0.2443874057314077</v>
       </c>
       <c r="E40" t="n">
-        <v>0.740745931571582</v>
+        <v>0.7556125942685923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06248688697814941</v>
+        <v>0.05904793739318848</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2786558132344268</v>
+        <v>0.2701307726823989</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7213441867655731</v>
+        <v>0.7298692273176011</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04686427116394043</v>
+        <v>0.05112648010253906</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.279230580355628</v>
+        <v>0.2723876656018582</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7207694196443721</v>
+        <v>0.7276123343981419</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06248712539672852</v>
+        <v>0.05330395698547363</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2623983518588333</v>
+        <v>0.2654787910518294</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7376016481411668</v>
+        <v>0.7345212089481705</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04686260223388672</v>
+        <v>0.04920125007629395</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2629681890476444</v>
+        <v>0.3026609211961502</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7370318109523555</v>
+        <v>0.6973390788038497</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06248664855957031</v>
+        <v>0.07320189476013184</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2886076853938045</v>
+        <v>0.2935390351777083</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7113923146061955</v>
+        <v>0.7064609648222918</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04686284065246582</v>
+        <v>0.07265472412109375</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3001402778830298</v>
+        <v>0.2752409940757527</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6998597221169702</v>
+        <v>0.7247590059242474</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06248688697814941</v>
+        <v>0.05874419212341309</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2981700980802612</v>
+        <v>0.2760237093656875</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7018299019197388</v>
+        <v>0.7239762906343125</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04683303833007812</v>
+        <v>0.04845380783081055</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2869986654922809</v>
+        <v>0.2836520380883282</v>
       </c>
       <c r="E48" t="n">
-        <v>0.713001334507719</v>
+        <v>0.7163479619116717</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06250977516174316</v>
+        <v>0.06249618530273438</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2777631054133383</v>
+        <v>0.2481591584908332</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7222368945866616</v>
+        <v>0.7518408415091669</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04685735702514648</v>
+        <v>0.05344820022583008</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2861771571645846</v>
+        <v>0.2989044066081166</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7138228428354154</v>
+        <v>0.7010955933918834</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06249833106994629</v>
+        <v>0.05341124534606934</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2862071061950414</v>
+        <v>0.2560687547396147</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7137928938049587</v>
+        <v>0.7439312452603852</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04686355590820312</v>
+        <v>0.06252789497375488</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.499</v>
+        <v>0.507</v>
       </c>
       <c r="E52" t="n">
-        <v>0.501</v>
+        <v>0.493</v>
       </c>
       <c r="F52" t="n">
-        <v>0.113344669342041</v>
+        <v>0.1092360019683838</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493</v>
+        <v>0.515</v>
       </c>
       <c r="E53" t="n">
-        <v>0.507</v>
+        <v>0.485</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09612607955932617</v>
+        <v>0.09679913520812988</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.598</v>
+        <v>0.461</v>
       </c>
       <c r="E54" t="n">
-        <v>0.402</v>
+        <v>0.539</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09372735023498535</v>
+        <v>0.09436702728271484</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.505</v>
+        <v>0.444</v>
       </c>
       <c r="E55" t="n">
-        <v>0.495</v>
+        <v>0.556</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0937347412109375</v>
+        <v>0.1003139019012451</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.591</v>
+        <v>0.489</v>
       </c>
       <c r="E56" t="n">
-        <v>0.409</v>
+        <v>0.511</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09372711181640625</v>
+        <v>0.1001338958740234</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1093552112579346</v>
+        <v>0.08468723297119141</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.492</v>
+        <v>0.494</v>
       </c>
       <c r="E58" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09371447563171387</v>
+        <v>0.1003305912017822</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551</v>
+        <v>0.484</v>
       </c>
       <c r="E59" t="n">
-        <v>0.449</v>
+        <v>0.516</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09373092651367188</v>
+        <v>0.1002492904663086</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.502</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.498</v>
+        <v>0.436</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09372735023498535</v>
+        <v>0.1003212928771973</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.524</v>
+        <v>0.497</v>
       </c>
       <c r="E61" t="n">
-        <v>0.476</v>
+        <v>0.503</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1093485355377197</v>
+        <v>0.09653854370117188</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.51</v>
+        <v>0.544</v>
       </c>
       <c r="E62" t="n">
-        <v>0.49</v>
+        <v>0.456</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1002020835876465</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.514</v>
+        <v>0.452</v>
       </c>
       <c r="E63" t="n">
-        <v>0.486</v>
+        <v>0.548</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09372901916503906</v>
+        <v>0.09446907043457031</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.611</v>
+        <v>0.497</v>
       </c>
       <c r="E64" t="n">
-        <v>0.389</v>
+        <v>0.503</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09372854232788086</v>
+        <v>0.09240865707397461</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="E65" t="n">
-        <v>0.477</v>
+        <v>0.484</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09372377395629883</v>
+        <v>0.102198600769043</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.526</v>
+        <v>0.459</v>
       </c>
       <c r="E66" t="n">
-        <v>0.474</v>
+        <v>0.541</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1093502044677734</v>
+        <v>0.09132051467895508</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.429</v>
+        <v>0.528</v>
       </c>
       <c r="E67" t="n">
-        <v>0.571</v>
+        <v>0.472</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09372973442077637</v>
+        <v>0.100208044052124</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.506</v>
+        <v>0.532</v>
       </c>
       <c r="E68" t="n">
-        <v>0.494</v>
+        <v>0.468</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09373140335083008</v>
+        <v>0.09214520454406738</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.48</v>
+        <v>0.487</v>
       </c>
       <c r="E69" t="n">
-        <v>0.52</v>
+        <v>0.513</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09372425079345703</v>
+        <v>0.1020910739898682</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.417</v>
+        <v>0.523</v>
       </c>
       <c r="E70" t="n">
-        <v>0.583</v>
+        <v>0.477</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0937354564666748</v>
+        <v>0.09527277946472168</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="E71" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09372544288635254</v>
+        <v>0.1003057956695557</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.489</v>
+        <v>0.441</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09373044967651367</v>
+        <v>0.09225869178771973</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.49</v>
+        <v>0.511</v>
       </c>
       <c r="E73" t="n">
-        <v>0.51</v>
+        <v>0.489</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09372711181640625</v>
+        <v>0.09407687187194824</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.543</v>
+        <v>0.554</v>
       </c>
       <c r="E74" t="n">
-        <v>0.457</v>
+        <v>0.446</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1249241828918457</v>
+        <v>0.1004037857055664</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.471</v>
       </c>
       <c r="E75" t="n">
-        <v>0.432</v>
+        <v>0.529</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1093473434448242</v>
+        <v>0.09534358978271484</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.537</v>
+        <v>0.591</v>
       </c>
       <c r="E76" t="n">
-        <v>0.463</v>
+        <v>0.409</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1093549728393555</v>
+        <v>0.1003763675689697</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.326</v>
+        <v>0.271</v>
       </c>
       <c r="E77" t="n">
-        <v>0.674</v>
+        <v>0.729</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1093902587890625</v>
+        <v>0.1045944690704346</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.295</v>
+        <v>0.279</v>
       </c>
       <c r="E78" t="n">
-        <v>0.705</v>
+        <v>0.721</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.1024918556213379</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.352</v>
+        <v>0.289</v>
       </c>
       <c r="E79" t="n">
-        <v>0.648</v>
+        <v>0.711</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.1104655265808105</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.286</v>
+        <v>0.218</v>
       </c>
       <c r="E80" t="n">
-        <v>0.714</v>
+        <v>0.782</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1093511581420898</v>
+        <v>0.1047711372375488</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.208</v>
+        <v>0.365</v>
       </c>
       <c r="E81" t="n">
-        <v>0.792</v>
+        <v>0.635</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09372615814208984</v>
+        <v>0.1093835830688477</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732</v>
+        <v>0.741</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1093580722808838</v>
+        <v>0.1040956974029541</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221</v>
+        <v>0.232</v>
       </c>
       <c r="E83" t="n">
-        <v>0.779</v>
+        <v>0.768</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0937190055847168</v>
+        <v>0.1124277114868164</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.284</v>
+        <v>0.214</v>
       </c>
       <c r="E84" t="n">
-        <v>0.716</v>
+        <v>0.786</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1093442440032959</v>
+        <v>0.1024022102355957</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.291</v>
+        <v>0.249</v>
       </c>
       <c r="E85" t="n">
-        <v>0.709</v>
+        <v>0.751</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09372997283935547</v>
+        <v>0.1031005382537842</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.273</v>
+        <v>0.302</v>
       </c>
       <c r="E86" t="n">
-        <v>0.727</v>
+        <v>0.698</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1093540191650391</v>
+        <v>0.1411519050598145</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.236</v>
+        <v>0.347</v>
       </c>
       <c r="E87" t="n">
-        <v>0.764</v>
+        <v>0.653</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09372282028198242</v>
+        <v>0.1094348430633545</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.264</v>
+        <v>0.285</v>
       </c>
       <c r="E88" t="n">
-        <v>0.736</v>
+        <v>0.715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1093482971191406</v>
+        <v>0.110659122467041</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.279</v>
+        <v>0.246</v>
       </c>
       <c r="E89" t="n">
-        <v>0.721</v>
+        <v>0.754</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1001198291778564</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.329</v>
+        <v>0.378</v>
       </c>
       <c r="E90" t="n">
-        <v>0.671</v>
+        <v>0.622</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1093497276306152</v>
+        <v>0.1109750270843506</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32</v>
+        <v>0.275</v>
       </c>
       <c r="E91" t="n">
-        <v>0.68</v>
+        <v>0.725</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1093502044677734</v>
+        <v>0.1088943481445312</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.199</v>
+        <v>0.32</v>
       </c>
       <c r="E92" t="n">
-        <v>0.801</v>
+        <v>0.68</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09369182586669922</v>
+        <v>0.1054747104644775</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.273</v>
+        <v>0.282</v>
       </c>
       <c r="E93" t="n">
-        <v>0.727</v>
+        <v>0.718</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1093876361846924</v>
+        <v>0.1044840812683105</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239</v>
+        <v>0.3</v>
       </c>
       <c r="E94" t="n">
-        <v>0.761</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09372878074645996</v>
+        <v>0.1022152900695801</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E95" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1093497276306152</v>
+        <v>0.1020057201385498</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.303</v>
+        <v>0.327</v>
       </c>
       <c r="E96" t="n">
-        <v>0.697</v>
+        <v>0.673</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09372925758361816</v>
+        <v>0.1112213134765625</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.318</v>
+        <v>0.259</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.741</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109349250793457</v>
+        <v>0.1020638942718506</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.298</v>
+        <v>0.315</v>
       </c>
       <c r="E98" t="n">
-        <v>0.702</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09372329711914062</v>
+        <v>0.1104907989501953</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21</v>
+        <v>0.324</v>
       </c>
       <c r="E99" t="n">
-        <v>0.79</v>
+        <v>0.676</v>
       </c>
       <c r="F99" t="n">
-        <v>0.109351634979248</v>
+        <v>0.1044707298278809</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F100" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.102696418762207</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.242</v>
+        <v>0.294</v>
       </c>
       <c r="E101" t="n">
-        <v>0.758</v>
+        <v>0.706</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.1105279922485352</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5114885114885115</v>
+        <v>0.4925074925074925</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4885114885114885</v>
+        <v>0.5074925074925075</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>19.296875</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5024975024975025</v>
+        <v>0.5144855144855145</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4975024975024975</v>
+        <v>0.4855144855144855</v>
       </c>
       <c r="F103" t="n">
-        <v>9.40625</v>
+        <v>18.359375</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5124875124875125</v>
+        <v>0.5004995004995005</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4875124875124875</v>
+        <v>0.4995004995004995</v>
       </c>
       <c r="F104" t="n">
-        <v>9.640625</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4855144855144855</v>
+        <v>0.4715284715284715</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5144855144855145</v>
+        <v>0.5284715284715285</v>
       </c>
       <c r="F105" t="n">
-        <v>9.140625</v>
+        <v>19.03125</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4735264735264735</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5264735264735265</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="F106" t="n">
-        <v>9.578125</v>
+        <v>19.296875</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5214785214785215</v>
+        <v>0.5024975024975025</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4785214785214785</v>
+        <v>0.4975024975024975</v>
       </c>
       <c r="F107" t="n">
-        <v>9.609375</v>
+        <v>18.859375</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5374625374625375</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4625374625374625</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F108" t="n">
-        <v>9.453125</v>
+        <v>18.65625</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5174825174825175</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4825174825174825</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="F109" t="n">
-        <v>9.484375</v>
+        <v>18.8125</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5374625374625375</v>
+        <v>0.5184815184815185</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4625374625374625</v>
+        <v>0.4815184815184815</v>
       </c>
       <c r="F110" t="n">
-        <v>9.71875</v>
+        <v>18.671875</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4985014985014985</v>
+        <v>0.5154845154845155</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5014985014985015</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="F111" t="n">
-        <v>9.84375</v>
+        <v>18.125</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5174825174825175</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4825174825174825</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F112" t="n">
-        <v>9.296875</v>
+        <v>18.890625</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5244755244755245</v>
+        <v>0.5254745254745254</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4755244755244755</v>
+        <v>0.4745254745254745</v>
       </c>
       <c r="F113" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5404595404595405</v>
+        <v>0.5144855144855145</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4595404595404595</v>
+        <v>0.4855144855144855</v>
       </c>
       <c r="F114" t="n">
-        <v>9.484375</v>
+        <v>18.28125</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5174825174825175</v>
+        <v>0.4715284715284715</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4825174825174825</v>
+        <v>0.5284715284715285</v>
       </c>
       <c r="F115" t="n">
-        <v>9.375</v>
+        <v>18.53125</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5214785214785215</v>
+        <v>0.5134865134865135</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4785214785214785</v>
+        <v>0.4865134865134865</v>
       </c>
       <c r="F116" t="n">
-        <v>9.546875</v>
+        <v>18.859375</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5114885114885115</v>
+        <v>0.4955044955044955</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4885114885114885</v>
+        <v>0.5044955044955045</v>
       </c>
       <c r="F117" t="n">
-        <v>9.296875</v>
+        <v>18.6875</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4855144855144855</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5144855144855145</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F118" t="n">
-        <v>9.265625</v>
+        <v>18.875</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4895104895104895</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5104895104895105</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="F119" t="n">
-        <v>9.375</v>
+        <v>19.3125</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5074925074925075</v>
+        <v>0.5244755244755245</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4925074925074925</v>
+        <v>0.4755244755244755</v>
       </c>
       <c r="F120" t="n">
-        <v>9.203125</v>
+        <v>19.796875</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.5024975024975025</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.4975024975024975</v>
       </c>
       <c r="F121" t="n">
-        <v>9.640625</v>
+        <v>18.828125</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F122" t="n">
-        <v>9.515625</v>
+        <v>19.3125</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5044955044955045</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4955044955044955</v>
+        <v>0.4825174825174825</v>
       </c>
       <c r="F123" t="n">
-        <v>9.3125</v>
+        <v>18.90625</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5054945054945055</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4945054945054945</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="F124" t="n">
-        <v>9.125</v>
+        <v>19.265625</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5294705294705294</v>
+        <v>0.5184815184815185</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4705294705294705</v>
+        <v>0.4815184815184815</v>
       </c>
       <c r="F125" t="n">
-        <v>8.8125</v>
+        <v>18.609375</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4735264735264735</v>
+        <v>0.5114885114885115</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5264735264735265</v>
+        <v>0.4885114885114885</v>
       </c>
       <c r="F126" t="n">
-        <v>8.328125</v>
+        <v>19.046875</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.2227772227772228</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.7772227772227772</v>
       </c>
       <c r="F127" t="n">
-        <v>10.09375</v>
+        <v>21.09375</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2247752247752248</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7752247752247752</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="F128" t="n">
-        <v>10.125</v>
+        <v>20.78125</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2297702297702298</v>
+        <v>0.2367632367632368</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7702297702297702</v>
+        <v>0.7632367632367633</v>
       </c>
       <c r="F129" t="n">
-        <v>10.140625</v>
+        <v>20.921875</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.2427572427572428</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.7572427572427572</v>
       </c>
       <c r="F130" t="n">
-        <v>10.40625</v>
+        <v>20.09375</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2167832167832168</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="F131" t="n">
-        <v>10.359375</v>
+        <v>20.484375</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2167832167832168</v>
+        <v>0.2137862137862138</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.7862137862137862</v>
       </c>
       <c r="F132" t="n">
-        <v>9.90625</v>
+        <v>20.609375</v>
       </c>
     </row>
     <row r="133">
@@ -3354,7 +3354,7 @@
         <v>0.7672327672327672</v>
       </c>
       <c r="F133" t="n">
-        <v>9.84375</v>
+        <v>19.859375</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2217782217782218</v>
+        <v>0.2257742257742258</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7782217782217782</v>
+        <v>0.7742257742257742</v>
       </c>
       <c r="F134" t="n">
-        <v>10.609375</v>
+        <v>20.234375</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2067932067932068</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7932067932067932</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="F135" t="n">
-        <v>10.109375</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.2227772227772228</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.7772227772227772</v>
       </c>
       <c r="F136" t="n">
-        <v>10.6875</v>
+        <v>20.140625</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2177822177822178</v>
+        <v>0.2587412587412588</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7822177822177823</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="F137" t="n">
-        <v>10.0625</v>
+        <v>20.703125</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2427572427572428</v>
+        <v>0.2457542457542458</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7572427572427572</v>
+        <v>0.7542457542457542</v>
       </c>
       <c r="F138" t="n">
-        <v>10.09375</v>
+        <v>19.78125</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2437562437562437</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7562437562437563</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="F139" t="n">
-        <v>10.765625</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2157842157842158</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7842157842157842</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="F140" t="n">
-        <v>10.40625</v>
+        <v>20.046875</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2457542457542458</v>
+        <v>0.2487512487512487</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7542457542457542</v>
+        <v>0.7512487512487512</v>
       </c>
       <c r="F141" t="n">
-        <v>10.5625</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.2177822177822178</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.7822177822177823</v>
       </c>
       <c r="F142" t="n">
-        <v>10.09375</v>
+        <v>19.8125</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.2057942057942058</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.7942057942057942</v>
       </c>
       <c r="F143" t="n">
-        <v>10.15625</v>
+        <v>19.9375</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2087912087912088</v>
+        <v>0.2107892107892108</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.7892107892107892</v>
       </c>
       <c r="F144" t="n">
-        <v>10.078125</v>
+        <v>20.265625</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="F145" t="n">
-        <v>10.25</v>
+        <v>20.375</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.2147852147852148</v>
       </c>
       <c r="E146" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.7852147852147852</v>
       </c>
       <c r="F146" t="n">
-        <v>9.859375</v>
+        <v>20.296875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2177822177822178</v>
+        <v>0.2187812187812188</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7822177822177823</v>
+        <v>0.7812187812187812</v>
       </c>
       <c r="F147" t="n">
-        <v>9.875</v>
+        <v>19.921875</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2507492507492508</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7492507492507493</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="F148" t="n">
-        <v>10.25</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2177822177822178</v>
+        <v>0.2397602397602398</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7822177822177823</v>
+        <v>0.7602397602397603</v>
       </c>
       <c r="F149" t="n">
-        <v>9.828125</v>
+        <v>20.78125</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1968031968031968</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8031968031968032</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="F150" t="n">
-        <v>9.90625</v>
+        <v>19.578125</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.2277722277722278</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.7722277722277723</v>
       </c>
       <c r="F151" t="n">
-        <v>9.328125</v>
+        <v>18.734375</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5234765234765235</v>
+        <v>0.5074925074925075</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4765234765234765</v>
+        <v>0.4925074925074925</v>
       </c>
       <c r="F152" t="n">
-        <v>10.546875</v>
+        <v>21.171875</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5094905094905094</v>
+        <v>0.4975024975024975</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4905094905094905</v>
+        <v>0.5024975024975025</v>
       </c>
       <c r="F153" t="n">
-        <v>11.140625</v>
+        <v>21.421875</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4715284715284715</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5284715284715285</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F154" t="n">
-        <v>10.921875</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5094905094905094</v>
+        <v>0.5254745254745254</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4905094905094905</v>
+        <v>0.4745254745254745</v>
       </c>
       <c r="F155" t="n">
-        <v>10.625</v>
+        <v>21.375</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4735264735264735</v>
+        <v>0.5104895104895105</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5264735264735265</v>
+        <v>0.4895104895104895</v>
       </c>
       <c r="F156" t="n">
-        <v>10.78125</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5044955044955045</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4955044955044955</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="F157" t="n">
-        <v>10.625</v>
+        <v>21.296875</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4995004995004995</v>
+        <v>0.5034965034965035</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5004995004995005</v>
+        <v>0.4965034965034965</v>
       </c>
       <c r="F158" t="n">
-        <v>10.625</v>
+        <v>20.703125</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5124875124875125</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.4875124875124875</v>
       </c>
       <c r="F159" t="n">
-        <v>10.734375</v>
+        <v>21.28125</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4725274725274725</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="F160" t="n">
-        <v>10.609375</v>
+        <v>20.9375</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5234765234765235</v>
+        <v>0.5044955044955045</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4765234765234765</v>
+        <v>0.4955044955044955</v>
       </c>
       <c r="F161" t="n">
-        <v>10.78125</v>
+        <v>21.328125</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4765234765234765</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5234765234765235</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F162" t="n">
-        <v>10.84375</v>
+        <v>20.734375</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5134865134865135</v>
+        <v>0.4815184815184815</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4865134865134865</v>
+        <v>0.5184815184815185</v>
       </c>
       <c r="F163" t="n">
-        <v>10.515625</v>
+        <v>20.953125</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5014985014985015</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4985014985014985</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F164" t="n">
-        <v>11.0625</v>
+        <v>21.09375</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4915084915084915</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5084915084915085</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="F165" t="n">
-        <v>10.765625</v>
+        <v>21.328125</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5074925074925075</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4925074925074925</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="F166" t="n">
-        <v>10.640625</v>
+        <v>21.46875</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5254745254745254</v>
+        <v>0.5024975024975025</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4745254745254745</v>
+        <v>0.4975024975024975</v>
       </c>
       <c r="F167" t="n">
-        <v>10.609375</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4855144855144855</v>
+        <v>0.5414585414585414</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5144855144855145</v>
+        <v>0.4585414585414586</v>
       </c>
       <c r="F168" t="n">
-        <v>10.515625</v>
+        <v>21.765625</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5014985014985015</v>
+        <v>0.4855144855144855</v>
       </c>
       <c r="E169" t="n">
-        <v>0.4985014985014985</v>
+        <v>0.5144855144855145</v>
       </c>
       <c r="F169" t="n">
-        <v>10.765625</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4495504495504495</v>
+        <v>0.4955044955044955</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5504495504495505</v>
+        <v>0.5044955044955045</v>
       </c>
       <c r="F170" t="n">
-        <v>10.625</v>
+        <v>21.4375</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.5004995004995005</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.4995004995004995</v>
       </c>
       <c r="F171" t="n">
-        <v>10.484375</v>
+        <v>21.0625</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.5404595404595405</v>
+        <v>0.5284715284715285</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4595404595404595</v>
+        <v>0.4715284715284715</v>
       </c>
       <c r="F172" t="n">
-        <v>10.34375</v>
+        <v>21.09375</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5244755244755245</v>
+        <v>0.4775224775224775</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4755244755244755</v>
+        <v>0.5224775224775224</v>
       </c>
       <c r="F173" t="n">
-        <v>10.21875</v>
+        <v>20.6875</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5134865134865135</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4865134865134865</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="F174" t="n">
-        <v>10.3125</v>
+        <v>20.6875</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5184815184815185</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4815184815184815</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F175" t="n">
-        <v>9.921875</v>
+        <v>20.046875</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.4855144855144855</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.5144855144855145</v>
       </c>
       <c r="F176" t="n">
-        <v>9.1875</v>
+        <v>20.140625</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2697302697302698</v>
+        <v>0.2457542457542458</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7302697302697303</v>
+        <v>0.7542457542457542</v>
       </c>
       <c r="F177" t="n">
-        <v>11.3125</v>
+        <v>23.5625</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="F178" t="n">
-        <v>11.6875</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2537462537462538</v>
+        <v>0.2677322677322677</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7462537462537463</v>
+        <v>0.7322677322677322</v>
       </c>
       <c r="F179" t="n">
-        <v>11.5625</v>
+        <v>23.46875</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2637362637362637</v>
+        <v>0.2387612387612388</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7362637362637363</v>
+        <v>0.7612387612387612</v>
       </c>
       <c r="F180" t="n">
-        <v>11.84375</v>
+        <v>23.140625</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2647352647352647</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7352647352647352</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="F181" t="n">
-        <v>11.4375</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2377622377622378</v>
+        <v>0.2247752247752248</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7622377622377622</v>
+        <v>0.7752247752247752</v>
       </c>
       <c r="F182" t="n">
-        <v>11.3125</v>
+        <v>22.65625</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2507492507492508</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7492507492507493</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="F183" t="n">
-        <v>11.984375</v>
+        <v>22.609375</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.7482517482517482</v>
       </c>
       <c r="F184" t="n">
-        <v>11.203125</v>
+        <v>23.0625</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2717282717282717</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.7282717282717283</v>
       </c>
       <c r="F185" t="n">
-        <v>11.421875</v>
+        <v>22.734375</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="E186" t="n">
-        <v>0.7422577422577422</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="F186" t="n">
-        <v>11.484375</v>
+        <v>23.140625</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.2577422577422577</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.7422577422577422</v>
       </c>
       <c r="F187" t="n">
-        <v>11.40625</v>
+        <v>23.21875</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>0.7562437562437563</v>
       </c>
       <c r="F188" t="n">
-        <v>11.515625</v>
+        <v>23.03125</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.2437562437562437</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.7562437562437563</v>
       </c>
       <c r="F189" t="n">
-        <v>11.390625</v>
+        <v>22.578125</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7482517482517482</v>
       </c>
       <c r="F190" t="n">
-        <v>11.53125</v>
+        <v>23.4375</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2437562437562437</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7562437562437563</v>
+        <v>0.7482517482517482</v>
       </c>
       <c r="F191" t="n">
-        <v>11.578125</v>
+        <v>23.09375</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.2457542457542458</v>
       </c>
       <c r="E192" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.7542457542457542</v>
       </c>
       <c r="F192" t="n">
-        <v>11.609375</v>
+        <v>23.078125</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.2407592407592408</v>
       </c>
       <c r="E193" t="n">
-        <v>0.7482517482517482</v>
+        <v>0.7592407592407593</v>
       </c>
       <c r="F193" t="n">
-        <v>11.421875</v>
+        <v>23.40625</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.7482517482517482</v>
       </c>
       <c r="F194" t="n">
-        <v>11.4375</v>
+        <v>22.21875</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2557442557442557</v>
+        <v>0.2607392607392607</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7442557442557443</v>
+        <v>0.7392607392607392</v>
       </c>
       <c r="F195" t="n">
-        <v>11.53125</v>
+        <v>22.8125</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.2387612387612388</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7422577422577422</v>
+        <v>0.7612387612387612</v>
       </c>
       <c r="F196" t="n">
-        <v>11.765625</v>
+        <v>23.296875</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2227772227772228</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.7772227772227772</v>
       </c>
       <c r="F197" t="n">
-        <v>11.453125</v>
+        <v>22.53125</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.2707292707292707</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.7292707292707292</v>
       </c>
       <c r="F198" t="n">
-        <v>11.15625</v>
+        <v>22.234375</v>
       </c>
     </row>
     <row r="199">
@@ -4806,7 +4806,7 @@
         <v>0.7532467532467533</v>
       </c>
       <c r="F199" t="n">
-        <v>11.09375</v>
+        <v>22.828125</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2227772227772228</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7772227772227772</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="F200" t="n">
-        <v>10.234375</v>
+        <v>21.328125</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="E201" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="F201" t="n">
-        <v>10.515625</v>
+        <v>21.484375</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4845154845154845</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5154845154845155</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="F202" t="n">
-        <v>12.3125</v>
+        <v>23.71875</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5344655344655345</v>
+        <v>0.5234765234765235</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4655344655344655</v>
+        <v>0.4765234765234765</v>
       </c>
       <c r="F203" t="n">
-        <v>11.96875</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5084915084915085</v>
+        <v>0.5154845154845155</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4915084915084915</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="F204" t="n">
-        <v>11.921875</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5024975024975025</v>
+        <v>0.5564435564435565</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4975024975024975</v>
+        <v>0.4435564435564436</v>
       </c>
       <c r="F205" t="n">
-        <v>11.953125</v>
+        <v>24.015625</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="E206" t="n">
-        <v>0.4725274725274725</v>
+        <v>0.5154845154845155</v>
       </c>
       <c r="F206" t="n">
-        <v>12.265625</v>
+        <v>23.390625</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5124875124875125</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4875124875124875</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F207" t="n">
-        <v>12.09375</v>
+        <v>23.703125</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4985014985014985</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5014985014985015</v>
+        <v>0.4825174825174825</v>
       </c>
       <c r="F208" t="n">
-        <v>12.03125</v>
+        <v>24.171875</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.4925074925074925</v>
+        <v>0.5294705294705294</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5074925074925075</v>
+        <v>0.4705294705294705</v>
       </c>
       <c r="F209" t="n">
-        <v>12.359375</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.5154845154845155</v>
       </c>
       <c r="F210" t="n">
-        <v>11.921875</v>
+        <v>23.8125</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5354645354645354</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="E211" t="n">
-        <v>0.4645354645354645</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="F211" t="n">
-        <v>11.9375</v>
+        <v>23.984375</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4925074925074925</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5074925074925075</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="F212" t="n">
-        <v>11.78125</v>
+        <v>23.765625</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5144855144855145</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.4855144855144855</v>
       </c>
       <c r="F213" t="n">
-        <v>11.828125</v>
+        <v>23.671875</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F214" t="n">
-        <v>12.046875</v>
+        <v>23.328125</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5234765234765235</v>
+        <v>0.5044955044955045</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4765234765234765</v>
+        <v>0.4955044955044955</v>
       </c>
       <c r="F215" t="n">
-        <v>11.828125</v>
+        <v>23.90625</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5074925074925075</v>
+        <v>0.5154845154845155</v>
       </c>
       <c r="E216" t="n">
-        <v>0.4925074925074925</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="F216" t="n">
-        <v>11.890625</v>
+        <v>23.65625</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="F217" t="n">
-        <v>11.921875</v>
+        <v>24.234375</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.5184815184815185</v>
       </c>
       <c r="E218" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.4815184815184815</v>
       </c>
       <c r="F218" t="n">
-        <v>12</v>
+        <v>23.859375</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4995004995004995</v>
+        <v>0.5094905094905094</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5004995004995005</v>
+        <v>0.4905094905094905</v>
       </c>
       <c r="F219" t="n">
-        <v>12.09375</v>
+        <v>23.5625</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4795204795204795</v>
+        <v>0.4925074925074925</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5204795204795205</v>
+        <v>0.5074925074925075</v>
       </c>
       <c r="F220" t="n">
-        <v>12.125</v>
+        <v>23.703125</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4785214785214785</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5214785214785215</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F221" t="n">
-        <v>11.984375</v>
+        <v>24.046875</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5404595404595405</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4595404595404595</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="F222" t="n">
-        <v>11.890625</v>
+        <v>23.34375</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5024975024975025</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4975024975024975</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="F223" t="n">
-        <v>11.546875</v>
+        <v>23.328125</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5094905094905094</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4905094905094905</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F224" t="n">
-        <v>11.296875</v>
+        <v>22.984375</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5154845154845155</v>
+        <v>0.5224775224775224</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4845154845154845</v>
+        <v>0.4775224775224775</v>
       </c>
       <c r="F225" t="n">
-        <v>11.09375</v>
+        <v>22.84375</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.5134865134865135</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4865134865134865</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F226" t="n">
-        <v>10.859375</v>
+        <v>22.609375</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.2777222777222777</v>
       </c>
       <c r="E227" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.7222777222777222</v>
       </c>
       <c r="F227" t="n">
-        <v>12.640625</v>
+        <v>26.40625</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.2367632367632368</v>
       </c>
       <c r="E228" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.7632367632367633</v>
       </c>
       <c r="F228" t="n">
-        <v>12.9375</v>
+        <v>26.015625</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.2787212787212787</v>
+        <v>0.2877122877122877</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7212787212787213</v>
+        <v>0.7122877122877123</v>
       </c>
       <c r="F229" t="n">
-        <v>13</v>
+        <v>25.796875</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.2677322677322677</v>
       </c>
       <c r="E230" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.7322677322677322</v>
       </c>
       <c r="F230" t="n">
-        <v>12.828125</v>
+        <v>25.390625</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.2737262737262737</v>
       </c>
       <c r="E231" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.7262737262737263</v>
       </c>
       <c r="F231" t="n">
-        <v>13.125</v>
+        <v>26.046875</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.2817182817182817</v>
+        <v>0.2707292707292707</v>
       </c>
       <c r="E232" t="n">
-        <v>0.7182817182817183</v>
+        <v>0.7292707292707292</v>
       </c>
       <c r="F232" t="n">
-        <v>12.8125</v>
+        <v>25.4375</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.2537462537462538</v>
       </c>
       <c r="E233" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.7462537462537463</v>
       </c>
       <c r="F233" t="n">
-        <v>12.984375</v>
+        <v>25.109375</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.2507492507492508</v>
       </c>
       <c r="E234" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.7492507492507493</v>
       </c>
       <c r="F234" t="n">
-        <v>12.796875</v>
+        <v>25.703125</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.2737262737262737</v>
       </c>
       <c r="E235" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.7262737262737263</v>
       </c>
       <c r="F235" t="n">
-        <v>12.828125</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2767232767232767</v>
       </c>
       <c r="E236" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.7232767232767233</v>
       </c>
       <c r="F236" t="n">
-        <v>12.875</v>
+        <v>25.765625</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.2587412587412588</v>
+        <v>0.2757242757242757</v>
       </c>
       <c r="E237" t="n">
-        <v>0.7412587412587412</v>
+        <v>0.7242757242757243</v>
       </c>
       <c r="F237" t="n">
-        <v>12.890625</v>
+        <v>26.15625</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.2647352647352647</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="E238" t="n">
-        <v>0.7352647352647352</v>
+        <v>0.7482517482517482</v>
       </c>
       <c r="F238" t="n">
-        <v>12.890625</v>
+        <v>25.1875</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.2657342657342657</v>
+        <v>0.2697302697302698</v>
       </c>
       <c r="E239" t="n">
-        <v>0.7342657342657343</v>
+        <v>0.7302697302697303</v>
       </c>
       <c r="F239" t="n">
-        <v>12.6875</v>
+        <v>25.703125</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.2607392607392607</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.7392607392607392</v>
       </c>
       <c r="F240" t="n">
-        <v>12.890625</v>
+        <v>26.109375</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2547452547452547</v>
       </c>
       <c r="E241" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.7452547452547452</v>
       </c>
       <c r="F241" t="n">
-        <v>12.96875</v>
+        <v>25.796875</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2407592407592408</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7592407592407593</v>
+        <v>0.7552447552447552</v>
       </c>
       <c r="F242" t="n">
-        <v>12.828125</v>
+        <v>25.515625</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.2757242757242757</v>
+        <v>0.2567432567432568</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7242757242757243</v>
+        <v>0.7432567432567433</v>
       </c>
       <c r="F243" t="n">
-        <v>12.90625</v>
+        <v>25.671875</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.2677322677322677</v>
+        <v>0.2707292707292707</v>
       </c>
       <c r="E244" t="n">
-        <v>0.7322677322677322</v>
+        <v>0.7292707292707292</v>
       </c>
       <c r="F244" t="n">
-        <v>13.03125</v>
+        <v>25.765625</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.2647352647352647</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E245" t="n">
-        <v>0.7352647352647352</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="F245" t="n">
-        <v>12.890625</v>
+        <v>25.796875</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.2477522477522477</v>
       </c>
       <c r="E246" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.7522477522477522</v>
       </c>
       <c r="F246" t="n">
-        <v>12.875</v>
+        <v>25.203125</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.2787212787212787</v>
+        <v>0.2687312687312687</v>
       </c>
       <c r="E247" t="n">
-        <v>0.7212787212787213</v>
+        <v>0.7312687312687313</v>
       </c>
       <c r="F247" t="n">
-        <v>12.65625</v>
+        <v>25.453125</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.2767232767232767</v>
       </c>
       <c r="E248" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.7232767232767233</v>
       </c>
       <c r="F248" t="n">
-        <v>12.734375</v>
+        <v>25.796875</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2687312687312687</v>
+        <v>0.2817182817182817</v>
       </c>
       <c r="E249" t="n">
-        <v>0.7312687312687313</v>
+        <v>0.7182817182817183</v>
       </c>
       <c r="F249" t="n">
-        <v>12.890625</v>
+        <v>25.09375</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.2737262737262737</v>
       </c>
       <c r="E250" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.7262737262737263</v>
       </c>
       <c r="F250" t="n">
-        <v>11.984375</v>
+        <v>24.859375</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.2587412587412588</v>
       </c>
       <c r="E251" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="F251" t="n">
-        <v>12.015625</v>
+        <v>24.40625</v>
       </c>
     </row>
   </sheetData>
